--- a/Bug_report part + (hw_3).xlsx
+++ b/Bug_report part + (hw_3).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wootm\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wootm\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57211DDA-E646-41D9-9F0C-CBF4DFCB6469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCD20BB-0E57-4971-BF42-868228D668EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="74">
   <si>
     <t>#</t>
   </si>
@@ -169,29 +169,6 @@
     <t>При вводе валидных данных в поле "Логин" и "Пароль"  авторизация успешна</t>
   </si>
   <si>
-    <t xml:space="preserve">
-1. Логин: мин длина 5 символов, макс длина 10 символов
-2. Логин поле регистрозависимое
-3. Принимает только латиницу, цифры и спецсимволы («.», «_», «-», «?», «!», «№», «%»)
-4. Логин не может начинаться со спецсимвола
-5. Пароль: мин длина 8 символов
-6. Пароль должен содержать как минимум 3 вида подмножества символов:
-- буквы в верхнем регистре
-- буквы в нижнем регистре
-- цифры 0-9
-- спецсимволы «.», «_», «-», «?», «!»</t>
-  </si>
-  <si>
-    <t>1. Вводим валидный данные в поле "Логин"
-2. Вводим валидные данные в поле "Пароль"
-3. Жмем "Вход"</t>
-  </si>
-  <si>
-    <t>1. В поле логин отображаются данные
-2. В поле пароль отображаются данные
-3. Авторизация успешна</t>
-  </si>
-  <si>
     <t>Выставив галочку на чек-бокс "Запомнить меня" вводим валидные данные логина и пароля, авторизация пройдена, при последующем открытие сайта авторизация пройдет автоматически</t>
   </si>
   <si>
@@ -299,14 +276,32 @@
 2. Жмем Войти</t>
   </si>
   <si>
-    <t>Не авторизует с активным 
-чек-боксом "Запомнить меня"</t>
+    <t>Авторизация</t>
   </si>
   <si>
-    <t>1. Вход в систему: Логин testerR!,
-Пароль QAtester1 = вход в систему осуществлен
-2. Жмем Выйти
-3. Ставим "Запомнить меня", повторяем шаг №1</t>
+    <t xml:space="preserve">Авторизация </t>
+  </si>
+  <si>
+    <t>1. В поле логин и пароль отображаются данные
+2. Авторизация успешна</t>
+  </si>
+  <si>
+    <t>1. Логин: testeR!, пароль: QAtester1
+2. Жмем "Вход"</t>
+  </si>
+  <si>
+    <t>Поле логин и пароль пустые</t>
+  </si>
+  <si>
+    <t>Логин и пароль отображают введеные символы</t>
+  </si>
+  <si>
+    <t>Активный чек-бокс "Запомнить меня" делает поля логин и пароль пустыми, при многократном нажатии</t>
+  </si>
+  <si>
+    <t>1. Ввод Логин testerR!,
+Пароль QAtester1 
+2. Жмем "Запомнить меня" несколько раз</t>
   </si>
 </sst>
 </file>
@@ -1604,7 +1599,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13786,7 +13781,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13865,7 +13860,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="D2" s="30" t="s">
         <v>30</v>
@@ -13874,14 +13869,14 @@
       <c r="F2" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="21" t="s">
-        <v>43</v>
+      <c r="G2" s="36" t="s">
+        <v>44</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>5</v>
@@ -13894,23 +13889,23 @@
         <v>6</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="D3" s="30" t="s">
         <v>30</v>
       </c>
       <c r="E3" s="31"/>
       <c r="F3" s="32" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>5</v>
@@ -27044,7 +27039,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -27071,16 +27066,16 @@
         <v>22</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F1" s="47" t="s">
         <v>41</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H1" s="26" t="s">
         <v>23</v>
@@ -27088,72 +27083,72 @@
     </row>
     <row r="2" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="49" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E2" s="46"/>
       <c r="F2" s="48" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G2" s="45" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H2" s="49" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B3" s="20" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="49" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F3" s="49" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H3" s="49" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C4" s="49" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F4" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="G4" s="49" t="s">
-        <v>67</v>
-      </c>
       <c r="H4" s="49" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -27257,16 +27252,16 @@
         <v>19</v>
       </c>
       <c r="E1" s="41" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G1" s="41" t="s">
         <v>23</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I1" s="40" t="s">
         <v>24</v>
@@ -27275,14 +27270,14 @@
     <row r="2" spans="1:9" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
       <c r="B2" s="15" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F2" s="42"/>
       <c r="G2" s="42"/>
